--- a/Model Inputs Bromfenac.xlsx
+++ b/Model Inputs Bromfenac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgow\Documents\Clients\5. Vertice\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD0CD502-C351-474D-A49F-8EB64BFD1822}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0C4B1D-1C62-4FEA-AA61-D9BC22F098CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1981,52 +1981,40 @@
         <v>101</v>
       </c>
       <c r="B58" s="35">
-        <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="35">
-        <f>HLOOKUP(C57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D58" s="35">
-        <f>HLOOKUP(D57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E58" s="35">
-        <f>HLOOKUP(E57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F58" s="35">
-        <f>HLOOKUP(F57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G58" s="35">
-        <f>HLOOKUP(G57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H58" s="35">
-        <f>HLOOKUP(H57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I58" s="35">
-        <f>HLOOKUP(I57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="J58" s="35">
-        <f>HLOOKUP(J57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="K58" s="35">
-        <f>HLOOKUP(K57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="L58" s="35">
-        <f>HLOOKUP(L57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="M58" s="35">
-        <f>HLOOKUP(M57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="N58" s="43" t="s">
         <v>142</v>

--- a/Model Inputs Bromfenac.xlsx
+++ b/Model Inputs Bromfenac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgow\Documents\Clients\5. Vertice\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0C4B1D-1C62-4FEA-AA61-D9BC22F098CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA68621D-7454-4553-94F5-9E998FA463B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1592,7 +1592,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C31" s="50"/>
       <c r="D31" s="50"/>

--- a/Model Inputs Bromfenac.xlsx
+++ b/Model Inputs Bromfenac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgow\Documents\Clients\5. Vertice\Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\PycharmProjects\V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD0CD502-C351-474D-A49F-8EB64BFD1822}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8D6326-11B7-454C-AE0D-E29FA013A799}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="7296" yWindow="36" windowWidth="16104" windowHeight="11208" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -828,31 +828,53 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -865,28 +887,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1206,23 +1206,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="6" width="8.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" style="6" customWidth="1"/>
-    <col min="8" max="13" width="8.453125" customWidth="1"/>
-    <col min="14" max="14" width="49.36328125" customWidth="1"/>
+    <col min="3" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="6" customWidth="1"/>
+    <col min="8" max="13" width="8.44140625" customWidth="1"/>
+    <col min="14" max="14" width="49.33203125" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.90625" hidden="1"/>
+    <col min="16" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
@@ -1258,223 +1258,223 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="J4" s="45" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="J4" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="J5" s="62" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="J5" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>155</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="J6" s="49" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="J6" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="J7" s="61" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="J7" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="J8" s="58" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="J8" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K8" s="50"/>
+      <c r="L8" s="51"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="J9" s="46" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="J9" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="26">
         <v>2020</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="J13" s="56" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="J13" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B17" s="27">
         <v>1</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1482,79 +1482,79 @@
       <c r="F19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="28">
         <v>0</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="28">
         <v>0</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="28">
         <v>0.25</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="28">
         <v>0.1</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>71</v>
       </c>
@@ -1562,130 +1562,130 @@
         <f>SUM(B24:B25)</f>
         <v>0.35</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="29">
-        <v>7</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="29">
         <v>0</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="29">
         <v>0</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="29">
         <v>0</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="29">
         <v>0</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="29">
         <v>0</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="28">
         <v>0</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="30">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>76</v>
       </c>
@@ -1693,131 +1693,131 @@
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B43" s="32">
         <v>60</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="32">
         <v>60</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="32">
         <v>30</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B49" s="33">
         <v>0.15</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B50" s="33">
         <v>0.21</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>94</v>
       </c>
       <c r="B51" s="32">
         <v>7</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>86</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>67</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>100</v>
       </c>
@@ -1932,12 +1932,12 @@
       </c>
       <c r="N56" s="42"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B57" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="36">
         <v>2</v>
@@ -1976,13 +1976,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B58" s="35">
         <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="35">
         <f>HLOOKUP(C57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
@@ -2032,7 +2032,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>99</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>77</v>
       </c>
@@ -2094,7 +2094,7 @@
       <c r="M60" s="37"/>
       <c r="N60" s="43"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
         <v>123</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
         <v>124</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
         <v>127</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
         <v>126</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
         <v>143</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>78</v>
       </c>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="N66" s="20"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2264,7 +2264,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2277,7 +2277,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>128</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="M69" s="15"/>
       <c r="N69" s="15"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>87</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
         <v>106</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="39" t="s">
         <v>129</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="39" t="s">
         <v>108</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="39" t="s">
         <v>109</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
         <v>110</v>
       </c>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="N75" s="44"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>103</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2506,7 +2506,7 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>130</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>87</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="39" t="s">
         <v>106</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="39" t="s">
         <v>107</v>
       </c>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="39" t="s">
         <v>108</v>
       </c>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
         <v>109</v>
       </c>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
         <v>112</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="N84" s="44"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>88</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>89</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>90</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>91</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>92</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>93</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2840,12 +2840,42 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="22"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="OZw+N/NlduiKmMvqWA3wkLhKcuX7x8fukM++8MJ5VvUpYBEKyxPWTra1GdKCOIlNnK+9UiIGKTvsLyrJnfE5Ig==" saltValue="Mzb2MDQVnvBGMGotssM08g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="46">
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C4:F4"/>
@@ -2862,36 +2892,6 @@
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C30:F30"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="4">
@@ -2943,12 +2943,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.90625" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>119</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -3227,14 +3227,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3305,187 +3305,187 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
